--- a/medidas.xlsx
+++ b/medidas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,156 @@
           <t>2000</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>3800</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>3900</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>4900</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -534,102 +684,2547 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.165497</t>
+          <t>0.141677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.304141</t>
+          <t>0.283306</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.452905</t>
+          <t>0.425790</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.597577</t>
+          <t>0.567771</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.779226</t>
+          <t>0.711256</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.933603</t>
+          <t>0.852263</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.096825</t>
+          <t>0.993679</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.214043</t>
+          <t>1.140455</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.276907</t>
+          <t>1.274341</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.501239</t>
+          <t>1.419446</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.646854</t>
+          <t>1.558846</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.682968</t>
+          <t>1.700371</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.996769</t>
+          <t>1.840915</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.174977</t>
+          <t>1.983435</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.367530</t>
+          <t>2.126576</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.427523</t>
+          <t>2.266133</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.508376</t>
+          <t>2.406916</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.605990</t>
+          <t>2.548395</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.703312</t>
+          <t>2.692170</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.981408</t>
+          <t>2.831857</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2.972766</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>3.119644</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3.256379</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>3.397910</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>3.539612</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>3.681033</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>3.822823</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>3.977062</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>4.105573</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>4.247104</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>4.388803</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>4.530327</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>4.672637</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>4.846152</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>4.966027</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>5.096561</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>5.244931</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>5.379700</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>5.528727</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>5.663499</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>5.814565</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>5.946329</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>6.087897</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>6.233756</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>6.382700</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>6.515414</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>6.653853</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>6.795357</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>6.936786</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>7.089120</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.143308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.283185</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.424930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.570683</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.707991</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.849570</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.993531</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.136011</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.274309</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.415847</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.560685</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.698925</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1.843830</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.982182</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2.123669</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2.268483</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2.406934</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2.548405</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2.689659</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2.831647</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2.973011</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>3.114689</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3.256337</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>3.398016</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>3.539555</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>3.680971</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>3.822873</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3.990288</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>4.107517</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>4.252360</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>4.407623</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>4.540600</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>4.672173</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>4.813554</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>4.967681</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>5.096815</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>5.238217</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>5.380468</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>5.542619</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>5.664251</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>5.805080</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>5.946328</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>6.087122</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>6.265189</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>6.371294</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>6.516436</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>6.685218</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>6.805463</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>6.935576</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>7.085374</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.141718</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.283225</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.424787</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.567169</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.707998</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.849654</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.991103</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.132674</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.277205</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.418002</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1.559033</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.705479</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1.842956</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.998524</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.134479</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2.266065</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2.419907</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2.549123</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2.706744</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2.862395</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2.973361</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>3.114691</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3.258728</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>3.418499</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>3.543905</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>3.690300</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>3.822327</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>3.981495</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>4.105415</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>4.247367</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>4.401455</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>4.530342</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>4.672843</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>4.813738</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>4.955140</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>5.096561</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>5.238396</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>5.399501</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>5.529078</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>5.663561</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>5.804554</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>5.946264</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>6.090783</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>6.232000</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>6.393055</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>6.512737</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>6.661331</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>6.795949</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>6.957330</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>7.094099</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.141658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.283348</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.424908</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.566314</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.708188</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.849654</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.995020</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.132687</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.282317</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.415906</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.561725</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.699032</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1.848505</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.982243</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2.123801</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2.264779</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2.406843</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2.548487</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2.690073</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2.831587</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2.973201</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3.114846</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>3.256237</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>3.409987</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>3.539400</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>3.680811</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>3.822324</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>3.964203</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>4.105698</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>4.247730</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>4.388838</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>4.551193</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>4.672050</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>4.813579</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>4.954530</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>5.097366</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>5.238295</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>5.380113</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>5.521628</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>5.663023</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>5.814498</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>5.945965</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>6.087520</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>6.229774</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>6.370851</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>6.512728</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>6.654229</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>6.796248</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>6.945723</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>7.078965</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.141707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.283207</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.424752</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.566461</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.707916</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.849539</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.991154</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.132733</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.274193</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.415757</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.557312</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.698893</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1.840409</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.981747</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2.123596</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2.265594</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2.406851</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2.548629</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2.692476</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2.831659</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2.977744</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>3.114655</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>3.256481</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>3.397637</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>3.539517</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>3.681085</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>3.822251</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>3.963966</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>4.105590</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>4.247254</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>4.388841</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>4.576387</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>4.672012</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>4.820441</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>4.954597</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>5.096764</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>5.238206</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>5.379810</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>5.521475</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>5.663053</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>5.804172</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>5.947147</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>6.087723</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>6.229843</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>6.370673</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>6.512770</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>6.653612</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>6.799038</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>6.937150</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>7.079200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.141607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.283310</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.424813</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.566287</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.708064</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.849452</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.991093</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.132762</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.274151</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.415722</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.557351</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.698415</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1.840591</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.982205</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2.123547</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2.265493</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2.409352</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2.548466</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2.704240</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2.832783</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.976313</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>3.119413</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3.256420</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3.398065</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>3.538930</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>3.681123</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3.822586</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>3.964154</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>4.105746</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>4.247227</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>4.388794</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>4.530518</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>4.671945</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>4.813127</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>4.955236</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>5.096757</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>5.255949</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>5.421636</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>5.545736</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>5.666047</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>5.812413</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>5.959005</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>6.092605</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>6.250403</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>6.372054</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>6.532374</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>6.653349</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>6.825063</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>6.939232</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>7.087845</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.144190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.283217</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.428731</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.566966</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.713268</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.849460</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.991240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.133016</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.279694</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.415819</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.557575</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.709134</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1.840549</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.982267</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2.128203</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2.275348</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2.407596</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2.553113</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2.690021</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2.831417</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2.973066</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>3.114563</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>3.256318</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>3.404004</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>3.541843</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>3.681008</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>3.828228</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>3.964447</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>4.106136</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>4.250668</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>4.389195</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>4.532277</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>4.671696</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>4.817039</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>4.956738</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>5.115165</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>5.250683</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>5.380512</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>5.526658</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>5.662878</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>5.858984</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>5.971416</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>6.088064</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>6.261256</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>6.381233</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>6.572877</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>6.654204</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>6.798714</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>6.939037</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>7.118602</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.141649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.285826</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.424859</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.571868</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.707773</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.857632</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.991080</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.132682</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.286312</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.415829</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.572020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.699361</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.848904</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.982327</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.143928</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.265170</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2.420067</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2.548576</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2.692598</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.831844</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>3.000841</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3.116825</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>3.286648</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>3.398353</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>3.572770</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>3.681194</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>3.858891</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>3.964268</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>4.111969</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>4.258729</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>4.388710</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>4.540702</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>4.674483</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>4.857517</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>4.955565</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>5.096724</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>5.238619</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>5.379843</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>5.521459</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>5.663366</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>5.809144</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>5.948186</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>6.087411</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>6.234476</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>6.371368</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>6.513754</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>6.666289</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>6.802641</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>6.937791</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>7.079248</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.141745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.283182</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.425079</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.566308</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.708169</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.849599</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.991174</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.132722</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.274261</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.415919</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.567405</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.701608</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.840736</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.984684</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.141945</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.265326</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2.409604</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2.548706</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2.690122</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2.831446</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2.973331</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3.115256</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>3.256887</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>3.398027</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>3.539534</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>3.681028</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>3.827615</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>3.964532</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>4.105889</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>4.247899</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>4.396008</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>4.530569</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>4.673065</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>4.813695</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>4.955583</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>5.098506</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>5.238727</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>5.389452</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>5.551844</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>5.663172</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>5.834462</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>5.954055</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>6.087971</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>6.231241</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>6.376024</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>6.513846</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>6.662359</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>6.807672</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>6.936886</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>7.078255</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.141702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.283147</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.424733</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.566428</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.707896</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.849510</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.991140</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.132631</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.274195</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.415862</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.557336</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.699505</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.841469</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.994702</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.123933</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2.267676</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2.407014</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2.559413</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2.690167</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2.836082</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2.973702</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3.119770</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3.256709</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>3.404551</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>3.540042</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>3.681472</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>3.822454</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>3.964090</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>4.105758</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>4.246905</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>4.388966</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>4.530836</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>4.672374</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>4.816584</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>4.955720</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>5.125204</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>5.248222</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>5.388314</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>5.521886</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>5.667988</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>5.806224</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>5.948795</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>6.087732</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>6.234708</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>6.371955</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>6.542836</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>6.656342</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>6.795905</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>6.937554</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>7.078721</t>
         </is>
       </c>
     </row>
